--- a/import_template_product_variant/tests/sample_variants_attributes_disordered.xlsx
+++ b/import_template_product_variant/tests/sample_variants_attributes_disordered.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
   <si>
     <t xml:space="preserve">product_tmpl_code</t>
   </si>
@@ -37,6 +37,51 @@
     <t xml:space="preserve">barcode</t>
   </si>
   <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categ_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*sale_ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*purchase_ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*list_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*invoice_policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*description_sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*description_purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom_po_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*product_brand_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRODTMPL1TEST</t>
   </si>
   <si>
@@ -47,6 +92,45 @@
   </si>
   <si>
     <t xml:space="preserve">White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trey.es/web/image/website/1/logo?unique=20ee16c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trey.es/web/content/58179?unique=f644e77ee21c04bc1b3c28e6b3094b95780a17cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description for customers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description for suppliers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand 1</t>
   </si>
   <si>
     <t xml:space="preserve">PROD1_WM</t>
@@ -77,9 +161,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -147,7 +232,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,6 +242,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,10 +270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -218,110 +311,421 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>4050119164021</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>4050119164038</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>4050119164106</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4050119164144</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4050119164298</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>4050119164069</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" display="https://trey.es/web/content/58179?unique=f644e77ee21c04bc1b3c28e6b3094b95780a17cf"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
